--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03371E51-8B0C-498E-804C-53AFCEA6E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868186F1-8E0B-442A-A2D1-7497A3061AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="mode=1" sheetId="1" r:id="rId1"/>
+    <sheet name="mode=4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Optimisation</t>
   </si>
@@ -43,6 +44,21 @@
   </si>
   <si>
     <t>Version grayscale</t>
+  </si>
+  <si>
+    <t>conv grayscale [ms]</t>
+  </si>
+  <si>
+    <t>sobel x [ms]</t>
+  </si>
+  <si>
+    <t>sobel y [ms]</t>
+  </si>
+  <si>
+    <t>sobel threshold [ms]</t>
+  </si>
+  <si>
+    <t>Loop [ms]</t>
   </si>
 </sst>
 </file>
@@ -81,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -90,6 +106,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +130,1131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> time as a function of -Ox</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loop [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33247.540999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6063.1260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5192.2359999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.4739999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42AC-4A7A-B424-713C6EC508F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>conv grayscale [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1959.1020000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.31099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272.70800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>274.57499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42AC-4A7A-B424-713C6EC508F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel x [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14583.197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2545.1950000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2145.8240000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>578.25099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42AC-4A7A-B424-713C6EC508F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel y [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14641.243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2544.2249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2147.5680000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528.19799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42AC-4A7A-B424-713C6EC508F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel threshold [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2063.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>659.91499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625.97799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-42AC-4A7A-B424-713C6EC508F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1013541520"/>
+        <c:axId val="1013538192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1013541520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013538192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013538192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013541520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>778807</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>113177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>862852</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D57BE4-F001-4889-828D-E1A0918DF884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8609FB8E-39F9-462A-8868-34F3628945CB}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,57 +1580,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1983.356256</v>
+        <v>2564.8402120000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2448.6569519999998</v>
+        <v>1984.181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1983.9527840000001</v>
+        <v>1976.6279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1983.7639999999999</v>
+        <v>1946.857</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
       <c r="C6" s="2">
-        <v>1983.249532</v>
+        <v>309.73500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>270.50135599999999</v>
+        <v>270.10500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>270.50622800000002</v>
+        <v>269.52300000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,4 +1782,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>33247.540999999997</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1959.1020000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>14583.197</v>
+      </c>
+      <c r="F2" s="5">
+        <v>14641.243</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2063.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6063.1260000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>313.31099999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2545.1950000000002</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2544.2249999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>659.91499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5192.2359999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>272.70800000000003</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2145.8240000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2147.5680000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>625.67999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2007.4739999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>274.57499999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>578.25099999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>528.19799999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <v>625.97799999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868186F1-8E0B-442A-A2D1-7497A3061AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B31DF6A-9EE2-4E08-AAA8-9D6BDB5A1235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="mode=1" sheetId="1" r:id="rId1"/>
-    <sheet name="mode=4" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphique mode=1" sheetId="5" r:id="rId1"/>
+    <sheet name="mode=1" sheetId="1" r:id="rId2"/>
+    <sheet name="mode=4" sheetId="2" r:id="rId3"/>
+    <sheet name="Graphique mode=4" sheetId="4" r:id="rId4"/>
+    <sheet name="Paramètres" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="frequency">Paramètres!$B$1</definedName>
+    <definedName name="pixels_x">Paramètres!$B$2</definedName>
+    <definedName name="pixels_y">Paramètres!$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Optimisation</t>
   </si>
@@ -60,13 +68,28 @@
   <si>
     <t>Loop [ms]</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Loop [clk/pixel]</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>Pixels X</t>
+  </si>
+  <si>
+    <t>Pixels Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,28 +116,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +171,478 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'mode=1'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'mode=1'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'mode=1'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2564.8402120000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984.181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1976.6279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1946.857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.10500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.52300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E09-4765-A482-CB39A32E5CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="680916127"/>
+        <c:axId val="680912383"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="680916127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Version grayscale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680912383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="680912383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Optimisation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680916127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -260,7 +770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42AC-4A7A-B424-713C6EC508F8}"/>
+              <c16:uniqueId val="{00000000-CF0A-4591-A731-3087D2A73ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -311,7 +821,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42AC-4A7A-B424-713C6EC508F8}"/>
+              <c16:uniqueId val="{00000001-CF0A-4591-A731-3087D2A73ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -362,7 +872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-42AC-4A7A-B424-713C6EC508F8}"/>
+              <c16:uniqueId val="{00000002-CF0A-4591-A731-3087D2A73ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -413,7 +923,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-42AC-4A7A-B424-713C6EC508F8}"/>
+              <c16:uniqueId val="{00000003-CF0A-4591-A731-3087D2A73ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -464,7 +974,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-42AC-4A7A-B424-713C6EC508F8}"/>
+              <c16:uniqueId val="{00000004-CF0A-4591-A731-3087D2A73ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -663,11 +1173,6 @@
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -711,8 +1216,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -739,8 +1284,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -820,6 +1365,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -830,6 +1382,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -841,9 +1400,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -861,6 +1422,525 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1216,31 +2296,45 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36CFDDA-A3FA-4898-9D78-695C2764E02B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D1F3BED2-8C84-41B0-B818-E47633795CD3}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>778807</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>113177</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>862852</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D57BE4-F001-4889-828D-E1A0918DF884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39342D0A-CBB7-4956-AB8A-BB68E87F83D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1253,7 +2347,40 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733FCD3-8992-4570-898D-10C61C4CD5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1557,7 +2684,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,33 +2925,37 @@
     <col min="2" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1846,8 +2977,12 @@
       <c r="G2" s="5">
         <v>2063.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <f>C2/1000*frequency/pixels_x/pixels_y</f>
+        <v>21645.534505208336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1869,8 +3004,12 @@
       <c r="G3" s="5">
         <v>659.91499999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <f>C3/1000*frequency/pixels_x/pixels_y</f>
+        <v>3947.34765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1892,8 +3031,12 @@
       <c r="G4" s="4">
         <v>625.67999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <f>C4/1000*frequency/pixels_x/pixels_y</f>
+        <v>3380.3619791666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1915,8 +3058,12 @@
       <c r="G5" s="5">
         <v>625.97799999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <f>C5/1000*frequency/pixels_x/pixels_y</f>
+        <v>1306.9492187499998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1925,16 +3072,18 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1943,7 +3092,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1952,7 +3101,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1961,7 +3110,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1970,7 +3119,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1979,7 +3128,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1990,6 +3139,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261FB3A-491F-431E-A11B-7F35DBD27952}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B31DF6A-9EE2-4E08-AAA8-9D6BDB5A1235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7256506A-1841-4D7B-87B2-D288706F914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphique mode=1" sheetId="5" r:id="rId1"/>
-    <sheet name="mode=1" sheetId="1" r:id="rId2"/>
+    <sheet name="mode=1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique mode=1" sheetId="5" r:id="rId2"/>
     <sheet name="mode=4" sheetId="2" r:id="rId3"/>
     <sheet name="Graphique mode=4" sheetId="4" r:id="rId4"/>
     <sheet name="Paramètres" sheetId="3" r:id="rId5"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Optimisation</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Loop [ms]</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Loop [clk/pixel]</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>Pixels Y</t>
+  </si>
+  <si>
+    <t>Loop unrolling</t>
+  </si>
+  <si>
+    <t>Inlining</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mode=4'!$C$1</c:f>
+              <c:f>'mode=4'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +752,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'mode=4'!$C$2:$C$5</c:f>
+              <c:f>'mode=4'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -779,7 +782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mode=4'!$D$1</c:f>
+              <c:f>'mode=4'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -800,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'mode=4'!$D$2:$D$5</c:f>
+              <c:f>'mode=4'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -830,7 +833,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mode=4'!$E$1</c:f>
+              <c:f>'mode=4'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +854,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'mode=4'!$E$2:$E$5</c:f>
+              <c:f>'mode=4'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -881,7 +884,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mode=4'!$F$1</c:f>
+              <c:f>'mode=4'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -902,7 +905,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'mode=4'!$F$2:$F$5</c:f>
+              <c:f>'mode=4'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -932,7 +935,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mode=4'!$G$1</c:f>
+              <c:f>'mode=4'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,7 +956,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'mode=4'!$G$2:$G$5</c:f>
+              <c:f>'mode=4'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2322,7 +2325,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -2684,7 +2687,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,23 +2916,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2937,25 +2940,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -2963,26 +2972,32 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>33247.540999999997</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
         <v>1959.1020000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>14583.197</v>
       </c>
-      <c r="F2" s="5">
+      <c r="H2" s="5">
         <v>14641.243</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>2063.6</v>
       </c>
-      <c r="H2" s="8">
-        <f>C2/1000*frequency/pixels_x/pixels_y</f>
-        <v>21645.534505208336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="8">
+        <f>E2/1000*frequency/pixels_x/pixels_y</f>
+        <v>4227.6434580485029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -2990,26 +3005,32 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>6063.1260000000002</v>
       </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>313.31099999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>2545.1950000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H3" s="5">
         <v>2544.2249999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>659.91499999999996</v>
       </c>
-      <c r="H3" s="8">
-        <f>C3/1000*frequency/pixels_x/pixels_y</f>
-        <v>3947.34765625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="8">
+        <f>E3/1000*frequency/pixels_x/pixels_y</f>
+        <v>770.96633911132813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3017,26 +3038,32 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>5192.2359999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>272.70800000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>2145.8240000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>2147.5680000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>625.67999999999995</v>
       </c>
-      <c r="H4" s="8">
-        <f>C4/1000*frequency/pixels_x/pixels_y</f>
-        <v>3380.3619791666665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="8">
+        <f>E4/1000*frequency/pixels_x/pixels_y</f>
+        <v>660.22694905598962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3044,98 +3071,327 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>2007.4739999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>274.57499999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>578.25099999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="5">
         <v>528.19799999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="I5" s="5">
         <v>625.97799999999995</v>
       </c>
-      <c r="H5" s="8">
-        <f>C5/1000*frequency/pixels_x/pixels_y</f>
-        <v>1306.9492187499998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="J5" s="8">
+        <f>E5/1000*frequency/pixels_x/pixels_y</f>
+        <v>255.26351928710935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26233.162</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1995.51</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11044.067999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>11090.804</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2102.2640000000001</v>
+      </c>
+      <c r="J6" s="8">
+        <f>E6/1000*frequency/pixels_x/pixels_y</f>
+        <v>3335.7190450032554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21254.988000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1971.01</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8621.7690000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8587.9110000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2073.7370000000001</v>
+      </c>
+      <c r="J7" s="8">
+        <f>E7/1000*frequency/pixels_x/pixels_y</f>
+        <v>2702.7114868164063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20980.427</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1936.1659999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8493.7330000000002</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8461.2189999999991</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2061.79</v>
+      </c>
+      <c r="J8" s="8">
+        <f>E8/1000*frequency/pixels_x/pixels_y</f>
+        <v>2667.7992502848306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15075.665000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1959.5219999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>13115.632</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f>E9/1000*frequency/pixels_x/pixels_y</f>
+        <v>1916.9699350992839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1455.105</v>
+      </c>
+      <c r="F10" s="6">
+        <v>278.08499999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1176.576</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f>E10/1000*frequency/pixels_x/pixels_y</f>
+        <v>185.02616882324219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10087.393</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1984.412</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8102.4620000000004</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f>E11/1000*frequency/pixels_x/pixels_y</f>
+        <v>1282.6783498128254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7788.7190000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1994.7180000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5793.4759999999997</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f>E12/1000*frequency/pixels_x/pixels_y</f>
+        <v>990.38683573404944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1132.364</v>
+      </c>
+      <c r="F13" s="5">
+        <v>279.04899999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>852.87400000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <f>E13/1000*frequency/pixels_x/pixels_y</f>
+        <v>143.98752848307291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1133.4079999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>278.495</v>
+      </c>
+      <c r="G14" s="5">
+        <v>854.452</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f>E14/1000*frequency/pixels_x/pixels_y</f>
+        <v>144.12027994791666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3147,14 +3403,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7">
         <v>50000000</v>
@@ -3162,18 +3418,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>320</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7256506A-1841-4D7B-87B2-D288706F914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236FFF2C-4C5B-4574-9419-02947DA63CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="mode=1" sheetId="1" r:id="rId1"/>
     <sheet name="Graphique mode=1" sheetId="5" r:id="rId2"/>
     <sheet name="mode=4" sheetId="2" r:id="rId3"/>
     <sheet name="Graphique mode=4" sheetId="4" r:id="rId4"/>
-    <sheet name="Paramètres" sheetId="3" r:id="rId5"/>
+    <sheet name="mode=4 + cache" sheetId="6" r:id="rId5"/>
+    <sheet name="Paramètres" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="frequency">Paramètres!$B$1</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Optimisation</t>
   </si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>Inlining</t>
+  </si>
+  <si>
+    <t>fps</t>
   </si>
 </sst>
 </file>
@@ -132,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +160,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2358,7 +2364,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -2918,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2999,7 @@
         <v>2063.6</v>
       </c>
       <c r="J2" s="8">
-        <f>E2/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" ref="J2:J14" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
         <v>4227.6434580485029</v>
       </c>
     </row>
@@ -3026,7 +3032,7 @@
         <v>659.91499999999996</v>
       </c>
       <c r="J3" s="8">
-        <f>E3/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>770.96633911132813</v>
       </c>
     </row>
@@ -3059,7 +3065,7 @@
         <v>625.67999999999995</v>
       </c>
       <c r="J4" s="8">
-        <f>E4/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>660.22694905598962</v>
       </c>
     </row>
@@ -3092,7 +3098,7 @@
         <v>625.97799999999995</v>
       </c>
       <c r="J5" s="8">
-        <f>E5/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>255.26351928710935</v>
       </c>
     </row>
@@ -3125,7 +3131,7 @@
         <v>2102.2640000000001</v>
       </c>
       <c r="J6" s="8">
-        <f>E6/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>3335.7190450032554</v>
       </c>
     </row>
@@ -3158,7 +3164,7 @@
         <v>2073.7370000000001</v>
       </c>
       <c r="J7" s="8">
-        <f>E7/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>2702.7114868164063</v>
       </c>
     </row>
@@ -3191,7 +3197,7 @@
         <v>2061.79</v>
       </c>
       <c r="J8" s="8">
-        <f>E8/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>2667.7992502848306</v>
       </c>
     </row>
@@ -3224,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <f>E9/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>1916.9699350992839</v>
       </c>
     </row>
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f>E10/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>185.02616882324219</v>
       </c>
     </row>
@@ -3290,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f>E11/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>1282.6783498128254</v>
       </c>
     </row>
@@ -3323,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <f>E12/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>990.38683573404944</v>
       </c>
     </row>
@@ -3356,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <f>E13/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>143.98752848307291</v>
       </c>
     </row>
@@ -3389,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <f>E14/1000*frequency/pixels_x/pixels_y</f>
+        <f t="shared" si="0"/>
         <v>144.12027994791666</v>
       </c>
     </row>
@@ -3399,6 +3405,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87004B-CCEA-4EF4-B920-C04C593EDB13}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>507</v>
+      </c>
+      <c r="F2">
+        <v>107.4</v>
+      </c>
+      <c r="G2">
+        <v>399</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
+        <v>64.4683837890625</v>
+      </c>
+      <c r="K2" s="12">
+        <f>1/E2*1000</f>
+        <v>1.9723865877712032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261FB3A-491F-431E-A11B-7F35DBD27952}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03371E51-8B0C-498E-804C-53AFCEA6E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236FFF2C-4C5B-4574-9419-02947DA63CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="mode=1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique mode=1" sheetId="5" r:id="rId2"/>
+    <sheet name="mode=4" sheetId="2" r:id="rId3"/>
+    <sheet name="Graphique mode=4" sheetId="4" r:id="rId4"/>
+    <sheet name="mode=4 + cache" sheetId="6" r:id="rId5"/>
+    <sheet name="Paramètres" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="frequency">Paramètres!$B$1</definedName>
+    <definedName name="pixels_x">Paramètres!$B$2</definedName>
+    <definedName name="pixels_y">Paramètres!$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Optimisation</t>
   </si>
@@ -44,13 +54,49 @@
   <si>
     <t>Version grayscale</t>
   </si>
+  <si>
+    <t>conv grayscale [ms]</t>
+  </si>
+  <si>
+    <t>sobel x [ms]</t>
+  </si>
+  <si>
+    <t>sobel y [ms]</t>
+  </si>
+  <si>
+    <t>sobel threshold [ms]</t>
+  </si>
+  <si>
+    <t>Loop [ms]</t>
+  </si>
+  <si>
+    <t>Loop [clk/pixel]</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>Pixels X</t>
+  </si>
+  <si>
+    <t>Pixels Y</t>
+  </si>
+  <si>
+    <t>Loop unrolling</t>
+  </si>
+  <si>
+    <t>Inlining</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -69,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,19 +123,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +177,2220 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'mode=1'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'mode=1'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'mode=1'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2564.8402120000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1984.181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1976.6279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1946.857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.10500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.52300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E09-4765-A482-CB39A32E5CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="680916127"/>
+        <c:axId val="680912383"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="680916127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Version grayscale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680912383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="680912383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Optimisation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680916127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> time as a function of -Ox</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loop [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33247.540999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6063.1260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5192.2359999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007.4739999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF0A-4591-A731-3087D2A73ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>conv grayscale [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1959.1020000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.31099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272.70800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>274.57499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF0A-4591-A731-3087D2A73ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel x [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14583.197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2545.1950000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2145.8240000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>578.25099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF0A-4591-A731-3087D2A73ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel y [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14641.243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2544.2249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2147.5680000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528.19799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF0A-4591-A731-3087D2A73ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mode=4'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sobel threshold [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'mode=4'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2063.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>659.91499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625.97799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CF0A-4591-A731-3087D2A73ABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1013541520"/>
+        <c:axId val="1013538192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1013541520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013538192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013538192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013541520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36CFDDA-A3FA-4898-9D78-695C2764E02B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D1F3BED2-8C84-41B0-B818-E47633795CD3}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39342D0A-CBB7-4956-AB8A-BB68E87F83D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733FCD3-8992-4570-898D-10C61C4CD5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8609FB8E-39F9-462A-8868-34F3628945CB}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,57 +2716,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1983.356256</v>
+        <v>2564.8402120000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2448.6569519999998</v>
+        <v>1984.181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1983.9527840000001</v>
+        <v>1976.6279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1983.7639999999999</v>
+        <v>1946.857</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
       <c r="C6" s="2">
-        <v>1983.249532</v>
+        <v>309.73500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>270.50135599999999</v>
+        <v>270.10500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>270.50622800000002</v>
+        <v>269.52300000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,4 +2918,624 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>33247.540999999997</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1959.1020000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>14583.197</v>
+      </c>
+      <c r="H2" s="5">
+        <v>14641.243</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2063.6</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J14" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
+        <v>4227.6434580485029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6063.1260000000002</v>
+      </c>
+      <c r="F3" s="5">
+        <v>313.31099999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2545.1950000000002</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2544.2249999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>659.91499999999996</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" si="0"/>
+        <v>770.96633911132813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5192.2359999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>272.70800000000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2145.8240000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2147.5680000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>625.67999999999995</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="0"/>
+        <v>660.22694905598962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2007.4739999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>274.57499999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>578.25099999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>528.19799999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>625.97799999999995</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>255.26351928710935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26233.162</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1995.51</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11044.067999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>11090.804</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2102.2640000000001</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="0"/>
+        <v>3335.7190450032554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21254.988000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1971.01</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8621.7690000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8587.9110000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2073.7370000000001</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>2702.7114868164063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20980.427</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1936.1659999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8493.7330000000002</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8461.2189999999991</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2061.79</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>2667.7992502848306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15075.665000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1959.5219999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>13115.632</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>1916.9699350992839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1455.105</v>
+      </c>
+      <c r="F10" s="6">
+        <v>278.08499999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1176.576</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>185.02616882324219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10087.393</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1984.412</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8102.4620000000004</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>1282.6783498128254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7788.7190000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1994.7180000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5793.4759999999997</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>990.38683573404944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1132.364</v>
+      </c>
+      <c r="F13" s="5">
+        <v>279.04899999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>852.87400000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>143.98752848307291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1133.4079999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>278.495</v>
+      </c>
+      <c r="G14" s="5">
+        <v>854.452</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="0"/>
+        <v>144.12027994791666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87004B-CCEA-4EF4-B920-C04C593EDB13}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>507</v>
+      </c>
+      <c r="F2">
+        <v>107.4</v>
+      </c>
+      <c r="G2">
+        <v>399</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
+        <v>64.4683837890625</v>
+      </c>
+      <c r="K2" s="12">
+        <f>1/E2*1000</f>
+        <v>1.9723865877712032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261FB3A-491F-431E-A11B-7F35DBD27952}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236FFF2C-4C5B-4574-9419-02947DA63CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D8EAD6-8453-4345-AE7C-1AE4BD50C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="180" yWindow="2535" windowWidth="19470" windowHeight="9615" activeTab="4" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="mode=1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Optimisation</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>fps</t>
+  </si>
+  <si>
+    <t>Sobel custom</t>
   </si>
 </sst>
 </file>
@@ -160,8 +163,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3406,25 +3409,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87004B-CCEA-4EF4-B920-C04C593EDB13}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3438,28 +3443,31 @@
         <v>13</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3473,27 +3481,110 @@
         <v>5</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>507</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>107.4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>399</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
-        <f t="shared" ref="J2" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K3" si="0">F2/1000*frequency/pixels_x/pixels_y</f>
         <v>64.4683837890625</v>
       </c>
-      <c r="K2" s="12">
-        <f>1/E2*1000</f>
+      <c r="L2" s="11">
+        <f>1/F2*1000</f>
         <v>1.9723865877712032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>485</v>
+      </c>
+      <c r="G3">
+        <v>84</v>
+      </c>
+      <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="0"/>
+        <v>61.670939127604164</v>
+      </c>
+      <c r="L3" s="11">
+        <f>1/F3*1000</f>
+        <v>2.061855670103093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>416</v>
+      </c>
+      <c r="G4">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>331</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4" si="1">F4/1000*frequency/pixels_x/pixels_y</f>
+        <v>52.897135416666664</v>
+      </c>
+      <c r="L4" s="11">
+        <f>1/F4*1000</f>
+        <v>2.4038461538461542</v>
       </c>
     </row>
   </sheetData>

--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D8EAD6-8453-4345-AE7C-1AE4BD50C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A51FA35-8F58-44DD-B59A-8E8C8E4D2571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2535" windowWidth="19470" windowHeight="9615" activeTab="4" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="mode=1" sheetId="1" r:id="rId1"/>
@@ -2927,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:J14" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
-        <v>4227.6434580485029</v>
+        <v>8455.2869160970058</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>770.96633911132813</v>
+        <v>1541.9326782226563</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="0"/>
-        <v>660.22694905598962</v>
+        <v>1320.4538981119792</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="0"/>
-        <v>255.26351928710935</v>
+        <v>510.52703857421869</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="0"/>
-        <v>3335.7190450032554</v>
+        <v>6671.4380900065107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>2702.7114868164063</v>
+        <v>5405.4229736328125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>2667.7992502848306</v>
+        <v>5335.5985005696612</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>1916.9699350992839</v>
+        <v>3833.9398701985679</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>185.02616882324219</v>
+        <v>370.05233764648438</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>1282.6783498128254</v>
+        <v>2565.3566996256509</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="0"/>
-        <v>990.38683573404944</v>
+        <v>1980.7736714680989</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="0"/>
-        <v>143.98752848307291</v>
+        <v>287.97505696614581</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" si="0"/>
-        <v>144.12027994791666</v>
+        <v>288.24055989583331</v>
       </c>
     </row>
   </sheetData>
@@ -3409,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87004B-CCEA-4EF4-B920-C04C593EDB13}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K2" s="8">
         <f t="shared" ref="K2:K3" si="0">F2/1000*frequency/pixels_x/pixels_y</f>
-        <v>64.4683837890625</v>
+        <v>128.936767578125</v>
       </c>
       <c r="L2" s="11">
         <f>1/F2*1000</f>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" si="0"/>
-        <v>61.670939127604164</v>
+        <v>123.34187825520833</v>
       </c>
       <c r="L3" s="11">
         <f>1/F3*1000</f>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3580,11 +3580,51 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ref="K4" si="1">F4/1000*frequency/pixels_x/pixels_y</f>
-        <v>52.897135416666664</v>
+        <v>105.79427083333333</v>
       </c>
       <c r="L4" s="11">
         <f>1/F4*1000</f>
         <v>2.4038461538461542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>423</v>
+      </c>
+      <c r="G5">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <v>337</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5" si="2">F5/1000*frequency/pixels_x/pixels_y</f>
+        <v>107.574462890625</v>
+      </c>
+      <c r="L5" s="11">
+        <f>1/F5*1000</f>
+        <v>2.3640661938534278</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261FB3A-491F-431E-A11B-7F35DBD27952}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3655,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1024</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Temps.xlsx
+++ b/Temps.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\HES-SO\Cours\EmbHardw\Labos\EmbHardw_Sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A51FA35-8F58-44DD-B59A-8E8C8E4D2571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893FDFE7-BCC7-49C5-99BF-D7AB4AFBED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{253E77B0-0A7A-4BA6-995C-5AB5140F8C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="mode=1" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphique mode=1" sheetId="5" r:id="rId2"/>
-    <sheet name="mode=4" sheetId="2" r:id="rId3"/>
-    <sheet name="Graphique mode=4" sheetId="4" r:id="rId4"/>
-    <sheet name="mode=4 + cache" sheetId="6" r:id="rId5"/>
-    <sheet name="Paramètres" sheetId="3" r:id="rId6"/>
+    <sheet name="mode=4" sheetId="2" r:id="rId2"/>
+    <sheet name="mode=4 + cache" sheetId="6" r:id="rId3"/>
+    <sheet name="Paramètres" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="frequency">Paramètres!$B$1</definedName>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Optimisation</t>
   </si>
@@ -92,6 +90,9 @@
   </si>
   <si>
     <t>Sobel custom</t>
+  </si>
+  <si>
+    <t>sobel x /complete [ms]</t>
   </si>
 </sst>
 </file>
@@ -197,478 +198,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:bubbleChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'mode=1'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'mode=1'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'mode=1'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2564.8402120000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1984.181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1976.6279999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1946.857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>309.73500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>270.10500000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>269.52300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E09-4765-A482-CB39A32E5CBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:bubbleScale val="100"/>
-        <c:showNegBubbles val="0"/>
-        <c:axId val="680916127"/>
-        <c:axId val="680912383"/>
-      </c:bubbleChart>
-      <c:valAx>
-        <c:axId val="680916127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Version grayscale</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680912383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="680912383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-CH"/>
-                  <a:t>Optimisation</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680916127"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -693,7 +222,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> time as a function of -Ox</a:t>
+              <a:t> time as a function of -Ox without unrolling or inlining</a:t>
             </a:r>
             <a:endParaRPr lang="fr-CH"/>
           </a:p>
@@ -782,7 +311,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF0A-4591-A731-3087D2A73ABB}"/>
+              <c16:uniqueId val="{00000000-5BA8-4EB6-838A-71430C70C705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -833,7 +362,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF0A-4591-A731-3087D2A73ABB}"/>
+              <c16:uniqueId val="{00000001-5BA8-4EB6-838A-71430C70C705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -846,7 +375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sobel x [ms]</c:v>
+                  <c:v>sobel x /complete [ms]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -884,7 +413,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF0A-4591-A731-3087D2A73ABB}"/>
+              <c16:uniqueId val="{00000002-5BA8-4EB6-838A-71430C70C705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,7 +464,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF0A-4591-A731-3087D2A73ABB}"/>
+              <c16:uniqueId val="{00000003-5BA8-4EB6-838A-71430C70C705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -986,7 +515,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF0A-4591-A731-3087D2A73ABB}"/>
+              <c16:uniqueId val="{00000004-5BA8-4EB6-838A-71430C70C705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,6 +714,11 @@
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1228,48 +762,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1296,8 +790,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1377,13 +871,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1394,13 +881,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1412,11 +892,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1434,9 +912,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,10 +924,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1773,17 +1248,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1803,550 +1267,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36CFDDA-A3FA-4898-9D78-695C2764E02B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D1F3BED2-8C84-41B0-B818-E47633795CD3}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39342D0A-CBB7-4956-AB8A-BB68E87F83D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D07E91-043F-4725-9B21-ACD0ABCD8267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2359,40 +1304,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733FCD3-8992-4570-898D-10C61C4CD5AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2693,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8609FB8E-39F9-462A-8868-34F3628945CB}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,7 +1618,7 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2716,8 +1628,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2727,8 +1642,12 @@
       <c r="C2" s="2">
         <v>2564.8402120000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="11">
+        <f>1/C2*1000</f>
+        <v>0.38988783602243365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2738,8 +1657,12 @@
       <c r="C3" s="2">
         <v>1984.181</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D8" si="0">1/C3*1000</f>
+        <v>0.5039862794775275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2749,8 +1672,12 @@
       <c r="C4" s="2">
         <v>1976.6279999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.50591208866817627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2760,8 +1687,12 @@
       <c r="C5" s="2">
         <v>1946.857</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.51364840869154738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2771,8 +1702,12 @@
       <c r="C6" s="2">
         <v>309.73500000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2285663551100132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2782,8 +1717,12 @@
       <c r="C7" s="2">
         <v>270.10500000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7022639343958827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2793,43 +1732,47 @@
       <c r="C8" s="2">
         <v>269.52300000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>3.7102584937092562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2925,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB3A73E-3A6D-4A9A-8094-9C23D22E1644}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,12 +1879,13 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2961,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>5</v>
@@ -2972,8 +1916,11 @@
       <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -3005,8 +1952,12 @@
         <f t="shared" ref="J2:J14" si="0">E2/1000*frequency/pixels_x/pixels_y</f>
         <v>8455.2869160970058</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="11">
+        <f>1/G2*1000</f>
+        <v>6.8572069622319445E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -3038,8 +1989,12 @@
         <f t="shared" si="0"/>
         <v>1541.9326782226563</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K14" si="1">1/G3*1000</f>
+        <v>0.39289720433994252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3071,8 +2026,12 @@
         <f t="shared" si="0"/>
         <v>1320.4538981119792</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.46602144444278748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3104,8 +2063,12 @@
         <f t="shared" si="0"/>
         <v>510.52703857421869</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.7293528242925651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3137,8 +2100,12 @@
         <f t="shared" si="0"/>
         <v>6671.4380900065107</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>9.0546345784904628E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -3170,8 +2137,12 @@
         <f t="shared" si="0"/>
         <v>5405.4229736328125</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.11598547815419319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -3203,8 +2174,12 @@
         <f t="shared" si="0"/>
         <v>5335.5985005696612</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.11773386330839454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -3236,8 +2211,12 @@
         <f t="shared" si="0"/>
         <v>3833.9398701985679</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>7.6244896166650616E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -3269,8 +2248,12 @@
         <f t="shared" si="0"/>
         <v>370.05233764648438</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.84992384682332456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -3302,8 +2285,12 @@
         <f t="shared" si="0"/>
         <v>2565.3566996256509</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12341927675810142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -3335,8 +2322,12 @@
         <f t="shared" si="0"/>
         <v>1980.7736714680989</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17260794728415205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -3368,8 +2359,12 @@
         <f t="shared" si="0"/>
         <v>287.97505696614581</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1725061380696329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -3401,18 +2396,110 @@
         <f t="shared" si="0"/>
         <v>288.24055989583331</v>
       </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1703407564146378</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94E9A02C-74C2-4714-9846-05A2A2819E77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63904A94-AB08-4A39-8DD6-881B0916EDE7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4DA1A16-24D5-4AA6-A1BC-C5EAE87B963D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94E9A02C-74C2-4714-9846-05A2A2819E77}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63904A94-AB08-4A39-8DD6-881B0916EDE7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4DA1A16-24D5-4AA6-A1BC-C5EAE87B963D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87004B-CCEA-4EF4-B920-C04C593EDB13}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,12 +2511,10 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -3455,19 +2540,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3492,24 +2571,18 @@
       <c r="H2">
         <v>399</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <f t="shared" ref="K2:K3" si="0">F2/1000*frequency/pixels_x/pixels_y</f>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I3" si="0">F2/1000*frequency/pixels_x/pixels_y</f>
         <v>128.936767578125</v>
       </c>
-      <c r="L2" s="11">
+      <c r="J2" s="11">
         <f>1/F2*1000</f>
         <v>1.9723865877712032</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3524,32 +2597,26 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G3">
         <v>84</v>
       </c>
       <c r="H3">
-        <v>400</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+        <v>399</v>
+      </c>
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>123.34187825520833</v>
-      </c>
-      <c r="L3" s="11">
+        <v>123.08756510416667</v>
+      </c>
+      <c r="J3" s="11">
         <f>1/F3*1000</f>
-        <v>2.061855670103093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0661157024793391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3564,66 +2631,20 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4">
-        <v>331</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" ref="K4" si="1">F4/1000*frequency/pixels_x/pixels_y</f>
-        <v>105.79427083333333</v>
-      </c>
-      <c r="L4" s="11">
+        <v>337</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4" si="1">F4/1000*frequency/pixels_x/pixels_y</f>
+        <v>107.574462890625</v>
+      </c>
+      <c r="J4" s="11">
         <f>1/F4*1000</f>
-        <v>2.4038461538461542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>423</v>
-      </c>
-      <c r="G5">
-        <v>86</v>
-      </c>
-      <c r="H5">
-        <v>337</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" ref="K5" si="2">F5/1000*frequency/pixels_x/pixels_y</f>
-        <v>107.574462890625</v>
-      </c>
-      <c r="L5" s="11">
-        <f>1/F5*1000</f>
         <v>2.3640661938534278</v>
       </c>
     </row>
